--- a/output/1Y_P21_1VAL-D.xlsx
+++ b/output/1Y_P21_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>704.1212</v>
       </c>
-      <c r="G2" s="1">
-        <v>704.1212</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.106299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2021</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E3" s="1">
+        <v>704.1212</v>
+      </c>
       <c r="F3" s="1">
         <v>714.9189</v>
       </c>
-      <c r="G3" s="1">
-        <v>1419.0401</v>
-      </c>
       <c r="H3" s="1">
-        <v>19746.0856</v>
+        <v>9797.9172</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.094</v>
+        <v>9797.9172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2021</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19746.0856</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0101</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E4" s="1">
+        <v>1419.0401</v>
+      </c>
       <c r="F4" s="1">
         <v>776.289</v>
       </c>
-      <c r="G4" s="1">
-        <v>2195.3292</v>
-      </c>
       <c r="H4" s="1">
-        <v>28133.1434</v>
+        <v>18184.9995</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6654</v>
+        <v>18184.9995</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.094</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28133.1434</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0542</v>
+        <v>-0.0815</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E5" s="1">
+        <v>2195.3292</v>
+      </c>
       <c r="F5" s="1">
         <v>778.1556</v>
       </c>
-      <c r="G5" s="1">
-        <v>2973.4848</v>
-      </c>
       <c r="H5" s="1">
-        <v>38013.6243</v>
+        <v>28065.5273</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4522</v>
+        <v>28065.5273</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6654</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38013.6243</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0031</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E6" s="1">
+        <v>2973.4848</v>
+      </c>
       <c r="F6" s="1">
         <v>721.4279</v>
       </c>
-      <c r="G6" s="1">
-        <v>3694.9126</v>
-      </c>
       <c r="H6" s="1">
-        <v>50950.9979</v>
+        <v>41002.8686</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5321</v>
+        <v>41002.8686</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.4522</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50950.9979</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0612</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E7" s="1">
+        <v>3694.9126</v>
+      </c>
       <c r="F7" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G7" s="1">
-        <v>4393.0953</v>
-      </c>
       <c r="H7" s="1">
-        <v>62595.4573</v>
+        <v>52647.3323</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6578</v>
+        <v>52647.3323</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5321</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62595.4573</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.027</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E8" s="1">
+        <v>4393.0953</v>
+      </c>
       <c r="F8" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G8" s="1">
-        <v>5095.6335</v>
-      </c>
       <c r="H8" s="1">
-        <v>72155.19010000001</v>
+        <v>62207.1077</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7373</v>
+        <v>62207.1077</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.6578</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72155.19010000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0061</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E9" s="1">
+        <v>5095.6335</v>
+      </c>
       <c r="F9" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G9" s="1">
-        <v>5823.1391</v>
-      </c>
       <c r="H9" s="1">
-        <v>79627.35060000001</v>
+        <v>69679.2218</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7383</v>
+        <v>69679.2218</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.7373</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79627.35060000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0308</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E10" s="1">
+        <v>5823.1391</v>
+      </c>
       <c r="F10" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G10" s="1">
-        <v>6511.2519</v>
-      </c>
       <c r="H10" s="1">
-        <v>94133.8202</v>
+        <v>84185.70389999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8222</v>
+        <v>84185.70389999999</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13.7383</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.75</v>
       </c>
-      <c r="L10" s="1">
-        <v>3930.6189</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-6069.3811</v>
+        <v>3439.5526</v>
       </c>
       <c r="O10" s="1">
-        <v>3930.6189</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>98064.4391</v>
+        <v>-6560.4474</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0941</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E11" s="1">
+        <v>6511.2519</v>
+      </c>
       <c r="F11" s="1">
-        <v>804.7791999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7316.0312</v>
+        <v>793.1319</v>
       </c>
       <c r="H11" s="1">
-        <v>102284.6999</v>
+        <v>91033.162</v>
       </c>
       <c r="I11" s="1">
-        <v>101310.2063</v>
+        <v>3439.5526</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8477</v>
+        <v>94472.7147</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91146.5175</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.9983</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11310.2063</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2620.4126</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104905.1125</v>
+        <v>-11146.5175</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0292</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E12" s="1">
+        <v>7304.3839</v>
+      </c>
       <c r="F12" s="1">
-        <v>857.659</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8173.6901</v>
+        <v>845.2464</v>
       </c>
       <c r="H12" s="1">
-        <v>107229.8235</v>
+        <v>95825.4814</v>
       </c>
       <c r="I12" s="1">
-        <v>112620.4126</v>
+        <v>2293.0351</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7784</v>
+        <v>98118.5165</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102293.0351</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.0043</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11310.2063</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1310.2063</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108540.0298</v>
+        <v>-11146.5175</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0554</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E13" s="1">
+        <v>8149.6302</v>
+      </c>
       <c r="F13" s="1">
-        <v>866.4302</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9040.1203</v>
+        <v>853.8905999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>117395.9064</v>
+        <v>105831.9132</v>
       </c>
       <c r="I13" s="1">
-        <v>123930.6189</v>
+        <v>1146.5175</v>
       </c>
       <c r="J13" s="1">
-        <v>13.709</v>
+        <v>106978.4307</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113439.5526</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.9196</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11310.2063</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>117395.9064</v>
+        <v>-11146.5175</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0097</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E14" s="1">
+        <v>9003.5209</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9040.1203</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8149.6302</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123991.9876</v>
       </c>
       <c r="I14" s="1">
-        <v>123930.6189</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.709</v>
+        <v>123991.9876</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113439.5526</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5995</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124496.0169</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124496.0169</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124496.0169</v>
+        <v>112232.6328</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0228</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.2021</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>704.1212</v>
       </c>
       <c r="G2" s="1">
-        <v>704.1212</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2021</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.9876</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>704.1212</v>
       </c>
       <c r="F3" s="1">
         <v>714.9189</v>
       </c>
       <c r="G3" s="1">
-        <v>1419.0401</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19746.0856</v>
+        <v>9797.9172</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.094</v>
+        <v>9797.9172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2021</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19746.0856</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0101</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>12.8818</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1419.0401</v>
       </c>
       <c r="F4" s="1">
         <v>776.289</v>
       </c>
       <c r="G4" s="1">
-        <v>2195.3292</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>28133.1434</v>
+        <v>18184.9995</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6654</v>
+        <v>18184.9995</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.094</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28133.1434</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0542</v>
+        <v>-0.0815</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>12.8509</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2195.3292</v>
       </c>
       <c r="F5" s="1">
         <v>778.1556</v>
       </c>
       <c r="G5" s="1">
-        <v>2973.4848</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38013.6243</v>
+        <v>28065.5273</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4522</v>
+        <v>28065.5273</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6654</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38013.6243</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0031</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.8614</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2973.4848</v>
       </c>
       <c r="F6" s="1">
         <v>652.4625</v>
       </c>
       <c r="G6" s="1">
-        <v>3625.9473</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41002.8686</v>
       </c>
       <c r="I6" s="1">
-        <v>49044.0435</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5259</v>
+        <v>41002.8686</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39044.0435</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.1307</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9044.0435</v>
       </c>
-      <c r="O6" s="1">
-        <v>955.9565</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50955.9565</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0613</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.3229</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3625.9473</v>
       </c>
       <c r="F7" s="1">
         <v>584.9927</v>
       </c>
       <c r="G7" s="1">
-        <v>4210.94</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51664.6724</v>
       </c>
       <c r="I7" s="1">
-        <v>57422.8361</v>
+        <v>955.9565</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6366</v>
+        <v>52620.6289</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47422.8361</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.0787</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8378.792600000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>2577.1639</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62577.1639</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0266</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.2341</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4210.94</v>
       </c>
       <c r="F8" s="1">
         <v>732.4930000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4943.433</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59627.7529</v>
       </c>
       <c r="I8" s="1">
-        <v>67849.2144</v>
+        <v>2577.1639</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7251</v>
+        <v>62204.9168</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57849.2144</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.7378</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10426.3783</v>
       </c>
-      <c r="O8" s="1">
-        <v>2150.7856</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72150.7856</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0059</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.7456</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4943.433</v>
       </c>
       <c r="F9" s="1">
         <v>883.9764</v>
       </c>
       <c r="G9" s="1">
-        <v>5827.4094</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>79685.74400000001</v>
+        <v>67597.9859</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>2150.7856</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7282</v>
+        <v>69748.7715</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.1602</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12150.7856</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79685.74400000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.03</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.5325</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5827.4094</v>
       </c>
       <c r="F10" s="1">
         <v>397.9055</v>
       </c>
       <c r="G10" s="1">
-        <v>6225.3149</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>84247.44010000001</v>
       </c>
       <c r="I10" s="1">
-        <v>85782.56200000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7796</v>
+        <v>84247.44010000001</v>
       </c>
       <c r="K10" s="1">
+        <v>75782.56200000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13.0045</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.75</v>
       </c>
-      <c r="L10" s="1">
-        <v>3933.5013</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-1849.0607</v>
+        <v>3336.8173</v>
       </c>
       <c r="O10" s="1">
-        <v>8150.9393</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>98150.9393</v>
+        <v>-2445.7447</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0944</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.0538</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6225.3149</v>
       </c>
       <c r="F11" s="1">
         <v>927.3005000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>7152.6154</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87035.505</v>
       </c>
       <c r="I11" s="1">
-        <v>98814.6572</v>
+        <v>7554.2553</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8152</v>
+        <v>94589.76029999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88814.6572</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.2667</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13032.0952</v>
       </c>
-      <c r="O11" s="1">
-        <v>5118.8441</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105118.8441</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.028</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.1873</v>
       </c>
       <c r="E12" s="1">
+        <v>7152.6154</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1101.2232</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>1146.47</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8299.0854</v>
-      </c>
       <c r="H12" s="1">
-        <v>108874.8712</v>
+        <v>93834.44560000001</v>
       </c>
       <c r="I12" s="1">
-        <v>113933.5013</v>
+        <v>4522.1601</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7284</v>
+        <v>98356.6057</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103336.8173</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.4474</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-15118.8441</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108874.8712</v>
+        <v>-14522.1601</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0542</v>
+        <v>-0.0596</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.0538</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8253.8385</v>
       </c>
       <c r="F13" s="1">
         <v>766.0605</v>
       </c>
       <c r="G13" s="1">
-        <v>9065.1458</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>117720.8903</v>
+        <v>107185.1722</v>
       </c>
       <c r="I13" s="1">
-        <v>123933.5013</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6714</v>
+        <v>107185.1722</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113336.8173</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.7314</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>117720.8903</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0097</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>13.8433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9019.898999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9065.1458</v>
+        <v>-9019.898999999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124217.5386</v>
       </c>
       <c r="I14" s="1">
-        <v>123933.5013</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6714</v>
+        <v>124217.5386</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113336.8173</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5652</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124840.6559</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124840.6559</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124840.6559</v>
+        <v>124217.5386</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0226</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.2021</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>704.1212</v>
       </c>
       <c r="G2" s="1">
-        <v>704.1212</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2021</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.9876</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>704.1212</v>
       </c>
       <c r="F3" s="1">
         <v>714.9189</v>
       </c>
       <c r="G3" s="1">
-        <v>1419.0401</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19746.0856</v>
+        <v>9797.9172</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.094</v>
+        <v>9797.9172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2021</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19746.0856</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0101</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>12.8818</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1419.0401</v>
       </c>
       <c r="F4" s="1">
         <v>776.289</v>
       </c>
       <c r="G4" s="1">
-        <v>2195.3292</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28133.1434</v>
+        <v>18184.9995</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6654</v>
+        <v>18184.9995</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.094</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28133.1434</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0542</v>
+        <v>-0.0815</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>12.8509</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2195.3292</v>
       </c>
       <c r="F5" s="1">
         <v>778.1556</v>
       </c>
       <c r="G5" s="1">
-        <v>2973.4848</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38013.6243</v>
+        <v>28065.5273</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4522</v>
+        <v>28065.5273</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6654</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38013.6243</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0031</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.8614</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2973.4848</v>
       </c>
       <c r="F6" s="1">
         <v>688.9037</v>
       </c>
       <c r="G6" s="1">
-        <v>3662.3885</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41002.8686</v>
       </c>
       <c r="I6" s="1">
-        <v>49549.1699</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5292</v>
+        <v>41002.8686</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39549.1699</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.3006</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9549.169900000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>450.8301</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50953.3364</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0612</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.3229</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3662.3885</v>
       </c>
       <c r="F7" s="1">
         <v>601.5405</v>
       </c>
       <c r="G7" s="1">
-        <v>4263.929</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52183.9088</v>
       </c>
       <c r="I7" s="1">
-        <v>58164.9743</v>
+        <v>450.8301</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6412</v>
+        <v>52634.7389</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48164.9743</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.1512</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8615.804400000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>1835.0257</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62590.0445</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0269</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.2341</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4263.929</v>
       </c>
       <c r="F8" s="1">
         <v>754.2765000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5018.2055</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>60378.0875</v>
       </c>
       <c r="I8" s="1">
-        <v>68901.4218</v>
+        <v>1835.0257</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7303</v>
+        <v>62213.1132</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58901.4218</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.8139</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10736.4475</v>
       </c>
-      <c r="O8" s="1">
-        <v>1098.5782</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72157.37209999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.006</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.7456</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5018.2055</v>
       </c>
       <c r="F9" s="1">
         <v>807.4277</v>
       </c>
       <c r="G9" s="1">
-        <v>5825.6332</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>79661.4565</v>
+        <v>68620.44779999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>1098.5782</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7324</v>
+        <v>69719.0261</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9492</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11098.5782</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79661.4565</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0304</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.5325</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5825.6332</v>
       </c>
       <c r="F10" s="1">
         <v>525.6515000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>6351.2847</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84221.7622</v>
       </c>
       <c r="I10" s="1">
-        <v>87639.0303</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7986</v>
+        <v>84221.7622</v>
       </c>
       <c r="K10" s="1">
+        <v>77639.0303</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13.3271</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.75</v>
       </c>
-      <c r="L10" s="1">
-        <v>3932.3024</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-3706.7278</v>
+        <v>3387.2887</v>
       </c>
       <c r="O10" s="1">
-        <v>6293.2722</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>98114.4305</v>
+        <v>-4251.7415</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.09429999999999999</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.0538</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6351.2847</v>
       </c>
       <c r="F11" s="1">
         <v>964.4292</v>
       </c>
       <c r="G11" s="1">
-        <v>7315.7139</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>88796.6765</v>
       </c>
       <c r="I11" s="1">
-        <v>101192.9247</v>
+        <v>5748.2585</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8323</v>
+        <v>94544.935</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91192.9247</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.3582</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13553.8945</v>
       </c>
-      <c r="O11" s="1">
-        <v>2739.3777</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105019.6418</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0286</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.1873</v>
       </c>
       <c r="E12" s="1">
+        <v>7315.7139</v>
+      </c>
+      <c r="F12" s="1">
+        <v>924.7051</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>966.0338</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8281.7477</v>
-      </c>
       <c r="H12" s="1">
-        <v>108647.4197</v>
+        <v>95974.11870000001</v>
       </c>
       <c r="I12" s="1">
-        <v>113932.3024</v>
+        <v>2194.364</v>
       </c>
       <c r="J12" s="1">
-        <v>13.757</v>
+        <v>98168.48269999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103387.2887</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.1322</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12739.3777</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108647.4197</v>
+        <v>-12194.364</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0554</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.0538</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8240.419</v>
       </c>
       <c r="F13" s="1">
         <v>766.0605</v>
       </c>
       <c r="G13" s="1">
-        <v>9047.8081</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>117495.7413</v>
+        <v>107010.9053</v>
       </c>
       <c r="I13" s="1">
-        <v>123932.3024</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6975</v>
+        <v>107010.9053</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113387.2887</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.7599</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>117495.7413</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0097</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>13.8433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9006.479499999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9047.8081</v>
+        <v>-9006.479499999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124032.7319</v>
       </c>
       <c r="I14" s="1">
-        <v>123932.3024</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6975</v>
+        <v>124032.7319</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113387.2887</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5895</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124601.8899</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124601.8899</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124601.8899</v>
+        <v>124032.7319</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0227</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.2021</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>704.1212</v>
       </c>
       <c r="G2" s="1">
-        <v>704.1212</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2021</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.9876</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>704.1212</v>
       </c>
       <c r="F3" s="1">
         <v>714.9189</v>
       </c>
       <c r="G3" s="1">
-        <v>1419.0401</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19746.0856</v>
+        <v>9797.9172</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.094</v>
+        <v>9797.9172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2021</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19746.0856</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0101</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>12.8818</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1419.0401</v>
       </c>
       <c r="F4" s="1">
         <v>776.289</v>
       </c>
       <c r="G4" s="1">
-        <v>2195.3292</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>28133.1434</v>
+        <v>18184.9995</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6654</v>
+        <v>18184.9995</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.094</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28133.1434</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0542</v>
+        <v>-0.0815</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>12.8509</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2195.3292</v>
       </c>
       <c r="F5" s="1">
         <v>778.1556</v>
       </c>
       <c r="G5" s="1">
-        <v>2973.4848</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38013.6243</v>
+        <v>28065.5273</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4522</v>
+        <v>28065.5273</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6654</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38013.6243</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0031</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.8614</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2973.4848</v>
       </c>
       <c r="F6" s="1">
         <v>721.4279</v>
       </c>
       <c r="G6" s="1">
-        <v>3694.9126</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50950.9979</v>
+        <v>41002.8686</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5321</v>
+        <v>41002.8686</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.4522</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50950.9979</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0612</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.3229</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3694.9126</v>
       </c>
       <c r="F7" s="1">
         <v>622.7151</v>
       </c>
       <c r="G7" s="1">
-        <v>4317.6277</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52647.3323</v>
       </c>
       <c r="I7" s="1">
-        <v>58919.086</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6462</v>
+        <v>52647.3323</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48919.086</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.2396</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8919.085999999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>1080.914</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62601.0646</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0271</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.2341</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4317.6277</v>
       </c>
       <c r="F8" s="1">
         <v>776.6048</v>
       </c>
       <c r="G8" s="1">
-        <v>5094.2326</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>61138.4723</v>
       </c>
       <c r="I8" s="1">
-        <v>69973.3569</v>
+        <v>1080.914</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7358</v>
+        <v>62219.3863</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59973.3569</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.8903</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11054.2709</v>
       </c>
-      <c r="O8" s="1">
-        <v>26.6431</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72161.9952</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.006</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.7456</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5094.2326</v>
       </c>
       <c r="F9" s="1">
         <v>729.4438</v>
       </c>
       <c r="G9" s="1">
-        <v>5823.6764</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>79634.6982</v>
+        <v>69660.06449999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>26.6431</v>
       </c>
       <c r="J9" s="1">
-        <v>13.737</v>
+        <v>69686.70759999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.741</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10026.6431</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79634.6982</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0308</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.5325</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5823.6764</v>
       </c>
       <c r="F10" s="1">
         <v>656.5494</v>
       </c>
       <c r="G10" s="1">
-        <v>6480.2258</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>84193.4721</v>
       </c>
       <c r="I10" s="1">
-        <v>89541.30439999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8176</v>
+        <v>84193.4721</v>
       </c>
       <c r="K10" s="1">
+        <v>79541.30439999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13.6583</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.75</v>
       </c>
-      <c r="L10" s="1">
-        <v>3930.9816</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-5610.3228</v>
+        <v>3438.607</v>
       </c>
       <c r="O10" s="1">
-        <v>4389.6772</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>98074.9498</v>
+        <v>-6102.6974</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.09420000000000001</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.0538</v>
       </c>
       <c r="E11" s="1">
+        <v>6480.2258</v>
+      </c>
+      <c r="F11" s="1">
+        <v>988.8644</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>1002.9924</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7483.2182</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>90599.3891</v>
       </c>
       <c r="I11" s="1">
-        <v>103637.1588</v>
+        <v>3897.3026</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8493</v>
+        <v>94496.6917</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93438.607</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.419</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-14095.8544</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>293.8228</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104915.9482</v>
+        <v>-13897.3026</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0292</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.1873</v>
       </c>
       <c r="E12" s="1">
+        <v>7469.0902</v>
+      </c>
+      <c r="F12" s="1">
+        <v>758.3053</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>780.5861</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8263.8043</v>
-      </c>
       <c r="H12" s="1">
-        <v>108412.022</v>
+        <v>97986.24770000001</v>
       </c>
       <c r="I12" s="1">
-        <v>113930.9816</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7867</v>
+        <v>97986.24770000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103438.607</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.8489</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10293.8228</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108412.022</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0566</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.0538</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8227.3956</v>
       </c>
       <c r="F13" s="1">
         <v>766.0605</v>
       </c>
       <c r="G13" s="1">
-        <v>9029.8647</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>117262.7265</v>
+        <v>106841.7815</v>
       </c>
       <c r="I13" s="1">
-        <v>123930.9816</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7246</v>
+        <v>106841.7815</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113438.607</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.7879</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>117262.7265</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0097</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>13.8433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8993.456</v>
       </c>
       <c r="F14" s="1">
-        <v>-9029.8647</v>
+        <v>-8993.456</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123853.3796</v>
       </c>
       <c r="I14" s="1">
-        <v>123930.9816</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7246</v>
+        <v>123853.3796</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113438.607</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6135</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124354.7822</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124354.7822</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124354.7822</v>
+        <v>123853.3796</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0228</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.2021</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>704.1212</v>
       </c>
       <c r="G2" s="1">
-        <v>704.1212</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2021</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.9876</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>704.1212</v>
       </c>
       <c r="F3" s="1">
         <v>714.9189</v>
       </c>
       <c r="G3" s="1">
-        <v>1419.0401</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19746.0856</v>
+        <v>9797.9172</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.094</v>
+        <v>9797.9172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2021</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19746.0856</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0101</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>12.8818</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1419.0401</v>
       </c>
       <c r="F4" s="1">
         <v>776.289</v>
       </c>
       <c r="G4" s="1">
-        <v>2195.3292</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28133.1434</v>
+        <v>18184.9995</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6654</v>
+        <v>18184.9995</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.094</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28133.1434</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0542</v>
+        <v>-0.0815</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>12.8509</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2195.3292</v>
       </c>
       <c r="F5" s="1">
         <v>778.1556</v>
       </c>
       <c r="G5" s="1">
-        <v>2973.4848</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38013.6243</v>
+        <v>28065.5273</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4522</v>
+        <v>28065.5273</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6654</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38013.6243</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0031</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.8614</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2973.4848</v>
       </c>
       <c r="F6" s="1">
         <v>721.4279</v>
       </c>
       <c r="G6" s="1">
-        <v>3694.9126</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50950.9979</v>
+        <v>41002.8686</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5321</v>
+        <v>41002.8686</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.4522</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50950.9979</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0612</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.3229</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3694.9126</v>
       </c>
       <c r="F7" s="1">
         <v>677.1316</v>
       </c>
       <c r="G7" s="1">
-        <v>4372.0442</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>52647.3323</v>
       </c>
       <c r="I7" s="1">
-        <v>59698.4879</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6546</v>
+        <v>52647.3323</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49698.4879</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.4505</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9698.4879</v>
       </c>
-      <c r="O7" s="1">
-        <v>301.5121</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62597.0214</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.027</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.2341</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4372.0442</v>
       </c>
       <c r="F8" s="1">
         <v>723.7207</v>
       </c>
       <c r="G8" s="1">
-        <v>5095.7649</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72157.0497</v>
+        <v>61909.0206</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>301.5121</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7369</v>
+        <v>62210.5327</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.7236</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10301.5121</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72157.0497</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0061</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.7456</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5095.7649</v>
       </c>
       <c r="F9" s="1">
         <v>727.5055</v>
       </c>
       <c r="G9" s="1">
-        <v>5823.2704</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>79629.1465</v>
+        <v>69681.01760000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.738</v>
+        <v>69681.01760000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.7369</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79629.1465</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0308</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.5325</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5823.2704</v>
       </c>
       <c r="F10" s="1">
         <v>688.1129</v>
       </c>
       <c r="G10" s="1">
-        <v>6511.3833</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>94135.7188</v>
+        <v>84187.60249999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8219</v>
+        <v>84187.60249999999</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13.738</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.75</v>
       </c>
-      <c r="L10" s="1">
-        <v>3930.7075</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-6069.2925</v>
+        <v>3439.6413</v>
       </c>
       <c r="O10" s="1">
-        <v>3930.7075</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>98066.42630000001</v>
+        <v>-6560.3587</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0941</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.0538</v>
       </c>
       <c r="E11" s="1">
+        <v>6511.3833</v>
+      </c>
+      <c r="F11" s="1">
+        <v>956.2995</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>991.2413</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7502.6246</v>
-      </c>
       <c r="H11" s="1">
-        <v>104893.4441</v>
+        <v>91034.9981</v>
       </c>
       <c r="I11" s="1">
-        <v>103930.7075</v>
+        <v>3439.6413</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8526</v>
+        <v>94474.6394</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93439.6413</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.3502</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-13930.7075</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104893.4441</v>
+        <v>-13439.6413</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0294</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.1873</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7467.6827</v>
       </c>
       <c r="F12" s="1">
         <v>758.3053</v>
       </c>
       <c r="G12" s="1">
-        <v>8260.929899999999</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108374.3137</v>
+        <v>97967.7827</v>
       </c>
       <c r="I12" s="1">
-        <v>113930.7075</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7915</v>
+        <v>97967.7827</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103439.6413</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.8516</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>108374.3137</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0567</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.0538</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8225.987999999999</v>
       </c>
       <c r="F13" s="1">
         <v>766.0605</v>
       </c>
       <c r="G13" s="1">
-        <v>9026.990400000001</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>117225.3999</v>
+        <v>106823.5034</v>
       </c>
       <c r="I13" s="1">
-        <v>123930.7075</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7289</v>
+        <v>106823.5034</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113439.6413</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.7904</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>117225.3999</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0097</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>13.8433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8992.048500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9026.990400000001</v>
+        <v>-8992.048500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123833.996</v>
       </c>
       <c r="I14" s="1">
-        <v>123930.7075</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7289</v>
+        <v>123833.996</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113439.6413</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6156</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124315.1981</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124315.1981</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124315.1981</v>
+        <v>123833.996</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0229</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.806</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.709</v>
+        <v>12.5995</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6714</v>
+        <v>12.5652</v>
       </c>
       <c r="E3" s="1">
-        <v>13.6975</v>
+        <v>12.5895</v>
       </c>
       <c r="F3" s="1">
-        <v>13.7246</v>
+        <v>12.6135</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7289</v>
+        <v>12.6156</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0121</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0391</v>
+        <v>0.0097</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0356</v>
+        <v>0.012</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0379</v>
+        <v>0.0102</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0403</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0407</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.164</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1476</v>
+        <v>0.1611</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1469</v>
+        <v>0.1602</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1475</v>
+        <v>0.161</v>
       </c>
       <c r="F5" s="3">
-        <v>0.148</v>
+        <v>0.1617</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1481</v>
+        <v>0.1616</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.1979</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.4025</v>
+        <v>-0.0663</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3809</v>
+        <v>-0.0522</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3948</v>
+        <v>-0.0629</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.4093</v>
+        <v>-0.0733</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.4119</v>
+        <v>-0.07489999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0706</v>
+        <v>-0.1183</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0772</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0727</v>
+        <v>0.0636</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0682</v>
+        <v>0.0602</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0674</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3930.6189</v>
+        <v>3439.5526</v>
       </c>
       <c r="D8" s="1">
-        <v>3933.5013</v>
+        <v>3336.8173</v>
       </c>
       <c r="E8" s="1">
-        <v>3932.3024</v>
+        <v>3387.2887</v>
       </c>
       <c r="F8" s="1">
-        <v>3930.9816</v>
+        <v>3438.607</v>
       </c>
       <c r="G8" s="1">
-        <v>3930.7075</v>
+        <v>3439.6413</v>
       </c>
     </row>
   </sheetData>
